--- a/tables/Compare_DE_rand_1_best_1_dim30.xlsx
+++ b/tables/Compare_DE_rand_1_best_1_dim30.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
-  <si>
-    <t>F#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Best</t>
   </si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Jr=0.3</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -191,14 +191,14 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,92 +501,90 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="K13" sqref="K13:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>0.20805699999999999</v>
@@ -607,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="4">
         <v>0.16458600000000001</v>
@@ -618,7 +616,7 @@
       <c r="N3" s="4">
         <v>0.28335500000000002</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.28238099999999999</v>
       </c>
       <c r="P3" s="4">
@@ -630,7 +628,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>22091422.154130999</v>
@@ -651,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="4">
         <v>8256783.1479460001</v>
@@ -662,7 +660,7 @@
       <c r="N4" s="4">
         <v>93000719.350648999</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>135710466.21073699</v>
       </c>
       <c r="P4" s="4">
@@ -674,7 +672,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>26758.829892000002</v>
@@ -695,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -706,7 +704,7 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>0</v>
       </c>
       <c r="P5" s="4">
@@ -718,7 +716,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>35.635356000000002</v>
@@ -739,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4">
         <v>8.1000000000000004E-5</v>
@@ -750,7 +748,7 @@
       <c r="N6" s="4">
         <v>1.613424</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>3.744227</v>
       </c>
       <c r="P6" s="4">
@@ -762,7 +760,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>1.9394999999999999E-2</v>
@@ -783,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -794,7 +792,7 @@
       <c r="N7" s="4">
         <v>7.3959999999999998E-3</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>6.8450000000000004E-3</v>
       </c>
       <c r="P7" s="4">
@@ -806,7 +804,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>120.429227</v>
@@ -827,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="4">
         <v>16.914299</v>
@@ -838,7 +836,7 @@
       <c r="N8" s="4">
         <v>42.783194000000002</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>50.556111000000001</v>
       </c>
       <c r="P8" s="4">
@@ -873,86 +871,84 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="N13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="O13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="P13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="Q13" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4">
         <v>0.19897999999999999</v>
@@ -973,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="4">
         <v>0.175647</v>
@@ -987,7 +983,7 @@
       <c r="N14" s="4">
         <v>0.29250399999999999</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <v>0.31054199999999998</v>
       </c>
       <c r="P14" s="4">
@@ -999,7 +995,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4">
         <v>22169.860089999998</v>
@@ -1010,7 +1006,7 @@
       <c r="D15" s="4">
         <v>768823.19620000001</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>10282076.66</v>
       </c>
       <c r="F15" s="4">
@@ -1020,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="4">
         <v>18978.498167000002</v>
@@ -1046,7 +1042,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -1067,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -1093,7 +1089,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4">
         <v>0.78520400000000001</v>
@@ -1114,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="4">
         <v>3.5599560000000001</v>
@@ -1128,7 +1124,7 @@
       <c r="N17" s="4">
         <v>9.5535610000000002</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="10">
         <v>9.9873200000000004</v>
       </c>
       <c r="P17" s="4">
@@ -1140,7 +1136,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1151,7 +1147,7 @@
       <c r="D18" s="4">
         <v>9.8569999999999994E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>1.4560999999999999E-2</v>
       </c>
       <c r="F18" s="4">
@@ -1161,10 +1157,10 @@
         <v>0.32</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -1187,7 +1183,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4">
         <v>28.853793</v>
@@ -1198,7 +1194,7 @@
       <c r="D19" s="4">
         <v>73.843581999999998</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>71.918412000000004</v>
       </c>
       <c r="F19" s="4">
@@ -1208,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="4">
         <v>33.828563000000003</v>
